--- a/class_materials/projects/movies/movies.xlsx
+++ b/class_materials/projects/movies/movies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiliobruna/Dropbox (UFL)/Teaching/IDS 2935 - Future of Rain Forests/IDS2935_RainForests/class_materials/projects/movies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4835E8-B30F-3F42-B16C-8FBDABAE0EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D391B6-6A4C-CC41-B408-0FDFAF29D11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5360" yWindow="500" windowWidth="37360" windowHeight="18260" xr2:uid="{353C7EC6-DCE5-5C40-B6C3-5F17E9D64295}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$U$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$U$107</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="629">
   <si>
     <t>kanopy</t>
   </si>
@@ -1151,12 +1151,6 @@
     <t>cut</t>
   </si>
   <si>
-    <t>trailer_for_class</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Indigenous - Chupacabra</t>
   </si>
   <si>
@@ -1181,9 +1175,6 @@
     <t>On an observatory set high on a mountain, astronomers make a stunning discovery somewhere out in the galaxy. </t>
   </si>
   <si>
-    <t>pay stream</t>
-  </si>
-  <si>
     <t>The extreme end of No Social Skills — a feral child has lived isolated from human contact from a very young age, and has little or no experience of human care, loving or social behavior, and — crucially — human language. These individuals are not just bad at social interaction; they are so limited that they are effectively wild animals who happen to have human form. </t>
   </si>
   <si>
@@ -6678,9 +6669,6 @@
     <t>The Lost City</t>
   </si>
   <si>
-    <t>https://www.imdb.com/title/tt13320622/</t>
-  </si>
-  <si>
     <t>A reclusive romance novelist on a book tour with her cover model gets swept up in a kidnapping attempt that lands them both in a cutthroat jungle adventure.</t>
   </si>
   <si>
@@ -6721,13 +6709,22 @@
   </si>
   <si>
     <t>A group of elite warriors parachute into an unfamiliar jungle and are hunted by members of a merciless alien race.</t>
+  </si>
+  <si>
+    <t>Extra Credit</t>
+  </si>
+  <si>
+    <t>assigned</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6863,13 +6860,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -6907,7 +6897,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6929,9 +6919,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7438,31 +7427,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7E5965-5A7E-9F4C-BD42-70F9C5F2FA16}">
-  <dimension ref="A1:U144"/>
+  <dimension ref="A1:U141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="47.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="2" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="47.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="7" style="2" customWidth="1"/>
     <col min="19" max="19" width="45" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5.5" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="10.83203125" style="2"/>
@@ -7470,58 +7459,58 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B1" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>122</v>
       </c>
+      <c r="E1" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="F1" s="6" t="s">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>318</v>
+        <v>121</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>117</v>
+        <v>326</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>326</v>
+        <v>118</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>59</v>
+        <v>614</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="S1" s="6" t="s">
         <v>96</v>
@@ -7529,21 +7518,19 @@
       <c r="U1" s="2"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="5">
+      <c r="D2" s="5">
         <v>1951</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>0</v>
       </c>
+      <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -7551,10 +7538,10 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>326</v>
       </c>
+      <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
@@ -7562,22 +7549,23 @@
       <c r="U2" s="2"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="E3" s="5">
+      <c r="D3" s="5">
         <v>1985</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
         <v>331</v>
       </c>
+      <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -7593,25 +7581,23 @@
       <c r="U3" s="2"/>
     </row>
     <row r="4" spans="1:21">
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="5">
+      <c r="D4" s="5">
         <v>1972</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
         <v>119</v>
       </c>
+      <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -7626,25 +7612,23 @@
       <c r="U4" s="2"/>
     </row>
     <row r="5" spans="1:21">
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="5">
+      <c r="D5" s="5">
         <v>1997</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>331</v>
+      </c>
       <c r="G5" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="H5" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -7659,31 +7643,29 @@
       <c r="U5" s="2"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="5">
+      <c r="D6" s="5">
         <v>2009</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
         <v>331</v>
       </c>
+      <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6" t="s">
+      <c r="M6" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
@@ -7692,22 +7674,20 @@
       <c r="U6" s="2"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="B7" s="2">
-        <v>2</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E7" s="5">
+      <c r="D7" s="5">
         <v>1992</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
         <v>331</v>
       </c>
+      <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -7723,29 +7703,27 @@
       <c r="U7" s="2"/>
     </row>
     <row r="8" spans="1:21">
-      <c r="B8" s="2">
-        <v>2</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="5">
+      <c r="D8" s="5">
         <v>2013</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
         <v>119</v>
       </c>
+      <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -7756,25 +7734,23 @@
       <c r="U8" s="2"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="B9" s="2">
-        <v>2</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="5">
+      <c r="D9" s="5">
         <v>2017</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
         <v>119</v>
       </c>
+      <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
@@ -7789,21 +7765,22 @@
       <c r="U9" s="2"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E10" s="5">
+      <c r="D10" s="5">
         <v>1979</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>0</v>
       </c>
+      <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -7822,21 +7799,19 @@
       <c r="U10" s="2"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="B11" s="2">
-        <v>2</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E11" s="5">
+      <c r="D11" s="5">
         <v>2015</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>0</v>
       </c>
+      <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -7855,23 +7830,21 @@
       <c r="U11" s="2"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="B12" s="2">
-        <v>2</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="E12" s="5">
+      <c r="D12" s="5">
         <v>2003</v>
       </c>
+      <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>325</v>
       </c>
+      <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -7886,23 +7859,21 @@
       <c r="U12" s="2"/>
     </row>
     <row r="13" spans="1:21">
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="5">
+      <c r="D13" s="5">
         <v>2016</v>
       </c>
+      <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>119</v>
       </c>
+      <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -7917,23 +7888,21 @@
       <c r="U13" s="2"/>
     </row>
     <row r="14" spans="1:21">
-      <c r="B14" s="2">
-        <v>2</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="5">
+      <c r="D14" s="5">
         <v>2009</v>
       </c>
+      <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>119</v>
       </c>
+      <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -7948,23 +7917,21 @@
       <c r="U14" s="2"/>
     </row>
     <row r="15" spans="1:21">
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="5">
+      <c r="D15" s="5">
         <v>2019</v>
       </c>
+      <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6" t="s">
+      <c r="G15" s="6" t="s">
         <v>119</v>
       </c>
+      <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -7979,22 +7946,20 @@
       <c r="U15" s="2"/>
     </row>
     <row r="16" spans="1:21">
-      <c r="B16" s="2">
-        <v>2</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E16" s="5">
+      <c r="D16" s="5">
         <v>1954</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6" t="s">
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
         <v>331</v>
       </c>
+      <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -8010,22 +7975,20 @@
       <c r="U16" s="2"/>
     </row>
     <row r="17" spans="2:21">
-      <c r="B17" s="2">
-        <v>2</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="E17" s="5">
+      <c r="D17" s="5">
         <v>1992</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6" t="s">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="s">
         <v>331</v>
       </c>
+      <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -8041,27 +8004,25 @@
       <c r="U17" s="2"/>
     </row>
     <row r="18" spans="2:21">
-      <c r="B18" s="2">
-        <v>2</v>
+      <c r="B18" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E18" s="5">
+      <c r="D18" s="5">
         <v>1986</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6" t="s">
+      <c r="E18" s="6"/>
+      <c r="F18" s="6" t="s">
         <v>331</v>
       </c>
+      <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6" t="s">
+      <c r="I18" s="6" t="s">
         <v>115</v>
       </c>
+      <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
@@ -8074,22 +8035,20 @@
       <c r="U18" s="2"/>
     </row>
     <row r="19" spans="2:21">
-      <c r="B19" s="2">
-        <v>2</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="E19" s="5">
+      <c r="D19" s="5">
         <v>1984</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6" t="s">
+      <c r="E19" s="6"/>
+      <c r="F19" s="6" t="s">
         <v>331</v>
       </c>
+      <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -8105,25 +8064,23 @@
       <c r="U19" s="2"/>
     </row>
     <row r="20" spans="2:21">
-      <c r="B20" s="2">
-        <v>2</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="5">
+      <c r="D20" s="5">
         <v>2006</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6" t="s">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6" t="s">
         <v>119</v>
       </c>
+      <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -8138,25 +8095,23 @@
       <c r="U20" s="2"/>
     </row>
     <row r="21" spans="2:21">
-      <c r="B21" s="2">
-        <v>2</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="5">
+      <c r="D21" s="5">
         <v>1982</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="E21" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6" t="s">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6" t="s">
         <v>119</v>
       </c>
+      <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -8171,21 +8126,19 @@
       <c r="U21" s="2"/>
     </row>
     <row r="22" spans="2:21">
-      <c r="B22" s="2">
-        <v>2</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="E22" s="5">
+      <c r="D22" s="5">
         <v>1956</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>0</v>
       </c>
+      <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -8202,27 +8155,25 @@
       <c r="U22" s="2"/>
     </row>
     <row r="23" spans="2:21">
-      <c r="B23" s="2">
-        <v>2</v>
+      <c r="B23" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E23" s="5">
+      <c r="D23" s="5">
         <v>2019</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="E23" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6" t="s">
+      <c r="I23" s="6" t="s">
         <v>115</v>
       </c>
+      <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
@@ -8237,25 +8188,23 @@
       <c r="U23" s="2"/>
     </row>
     <row r="24" spans="2:21">
-      <c r="B24" s="2">
-        <v>2</v>
-      </c>
-      <c r="C24" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="E24" s="5">
+      <c r="D24" s="5">
         <v>2014</v>
       </c>
-      <c r="F24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6" t="s">
+        <v>331</v>
+      </c>
       <c r="G24" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="H24" s="6" t="s">
         <v>324</v>
       </c>
+      <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
@@ -8270,28 +8219,26 @@
       <c r="U24" s="2"/>
     </row>
     <row r="25" spans="2:21">
-      <c r="B25" s="2">
-        <v>2</v>
-      </c>
-      <c r="C25" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="E25" s="5">
+      <c r="D25" s="5">
         <v>1986</v>
       </c>
+      <c r="E25" s="6"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6" t="s">
+      <c r="G25" s="6" t="s">
         <v>319</v>
       </c>
+      <c r="H25" s="6"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6" t="s">
+      <c r="J25" s="6" t="s">
         <v>114</v>
       </c>
+      <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
@@ -8303,23 +8250,21 @@
       <c r="U25" s="2"/>
     </row>
     <row r="26" spans="2:21">
-      <c r="B26" s="2">
-        <v>2</v>
-      </c>
-      <c r="C26" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="C26" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E26" s="5">
+      <c r="D26" s="5">
         <v>1993</v>
       </c>
+      <c r="E26" s="6"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6" t="s">
+      <c r="G26" s="6" t="s">
         <v>119</v>
       </c>
+      <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -8336,22 +8281,20 @@
       <c r="U26" s="2"/>
     </row>
     <row r="27" spans="2:21">
-      <c r="B27" s="2">
-        <v>2</v>
-      </c>
-      <c r="C27" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E27" s="5">
+      <c r="D27" s="5">
         <v>1998</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6" t="s">
+      <c r="E27" s="6"/>
+      <c r="F27" s="6" t="s">
         <v>331</v>
       </c>
+      <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
@@ -8359,44 +8302,42 @@
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6" t="s">
+      <c r="O27" s="6" t="s">
         <v>118</v>
       </c>
+      <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
       <c r="U27" s="2"/>
     </row>
     <row r="28" spans="2:21">
-      <c r="B28" s="2">
-        <v>2</v>
-      </c>
-      <c r="C28" s="5" t="s">
+      <c r="B28" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="C28" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="E28" s="5">
+      <c r="D28" s="5">
         <v>2008</v>
       </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6" t="s">
+      <c r="E28" s="6"/>
+      <c r="F28" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6" t="s">
+      <c r="G28" s="6"/>
+      <c r="H28" s="6" t="s">
         <v>112</v>
       </c>
+      <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6" t="s">
+      <c r="N28" s="6" t="s">
         <v>326</v>
       </c>
+      <c r="O28" s="6"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
@@ -8404,25 +8345,23 @@
       <c r="U28" s="2"/>
     </row>
     <row r="29" spans="2:21" ht="21">
-      <c r="B29" s="2">
-        <v>2</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>629</v>
-      </c>
-      <c r="E29" s="5">
+      <c r="B29" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>625</v>
+      </c>
+      <c r="D29" s="5">
         <v>2010</v>
       </c>
+      <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6" t="s">
+      <c r="I29" s="6" t="s">
         <v>115</v>
       </c>
+      <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
@@ -8435,32 +8374,30 @@
       <c r="U29" s="2"/>
     </row>
     <row r="30" spans="2:21">
-      <c r="B30" s="19">
-        <v>2</v>
-      </c>
-      <c r="C30" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="E30" s="5">
+      <c r="D30" s="5">
         <v>1987</v>
       </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6" t="s">
+      <c r="E30" s="6"/>
+      <c r="F30" s="6" t="s">
         <v>331</v>
       </c>
+      <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6" t="s">
+      <c r="N30" s="6" t="s">
         <v>326</v>
       </c>
+      <c r="O30" s="6"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
@@ -8468,22 +8405,20 @@
       <c r="U30" s="2"/>
     </row>
     <row r="31" spans="2:21">
-      <c r="B31" s="2">
-        <v>1</v>
-      </c>
-      <c r="C31" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="C31" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="E31" s="5">
+      <c r="D31" s="5">
         <v>1986</v>
       </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6" t="s">
+      <c r="E31" s="6"/>
+      <c r="F31" s="6" t="s">
         <v>331</v>
       </c>
+      <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
@@ -8499,22 +8434,20 @@
       <c r="U31" s="2"/>
     </row>
     <row r="32" spans="2:21">
-      <c r="B32" s="2">
-        <v>2</v>
+      <c r="B32" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E32" s="5">
+      <c r="D32" s="5">
         <v>2006</v>
       </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6" t="s">
+      <c r="E32" s="6"/>
+      <c r="F32" s="6" t="s">
         <v>331</v>
       </c>
+      <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
@@ -8530,67 +8463,63 @@
       <c r="U32" s="2"/>
     </row>
     <row r="33" spans="1:21">
-      <c r="B33" s="2">
-        <v>2</v>
+      <c r="B33" s="5" t="s">
+        <v>600</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="E33" s="5">
+        <v>602</v>
+      </c>
+      <c r="D33" s="5">
         <v>2019</v>
       </c>
+      <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6" t="s">
+      <c r="I33" s="6" t="s">
         <v>115</v>
       </c>
+      <c r="J33" s="6"/>
       <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6" t="s">
+      <c r="L33" s="6" t="s">
         <v>116</v>
       </c>
+      <c r="M33" s="6"/>
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="U33" s="2"/>
     </row>
     <row r="34" spans="1:21">
-      <c r="B34" s="2">
-        <v>2</v>
-      </c>
-      <c r="C34" s="5" t="s">
+      <c r="B34" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="C34" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="E34" s="5">
+      <c r="D34" s="5">
         <v>2008</v>
       </c>
+      <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6" t="s">
+      <c r="H34" s="6" t="s">
         <v>112</v>
       </c>
+      <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6" t="s">
+      <c r="N34" s="6" t="s">
         <v>326</v>
       </c>
+      <c r="O34" s="6"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
@@ -8598,21 +8527,19 @@
       <c r="U34" s="2"/>
     </row>
     <row r="35" spans="1:21">
-      <c r="B35" s="2">
-        <v>2</v>
-      </c>
-      <c r="C35" s="5" t="s">
+      <c r="B35" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E35" s="5">
+      <c r="D35" s="5">
         <v>2016</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="E35" s="6" t="s">
         <v>0</v>
       </c>
+      <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
@@ -8631,23 +8558,21 @@
       <c r="U35" s="2"/>
     </row>
     <row r="36" spans="1:21">
-      <c r="B36" s="2">
-        <v>2</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="D36" s="6" t="s">
+      <c r="B36" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E36" s="5">
+      <c r="D36" s="5">
         <v>2007</v>
       </c>
+      <c r="E36" s="6"/>
       <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6" t="s">
+      <c r="G36" s="6" t="s">
         <v>119</v>
       </c>
+      <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
@@ -8662,23 +8587,21 @@
       <c r="U36" s="2"/>
     </row>
     <row r="37" spans="1:21">
-      <c r="B37" s="2">
-        <v>2</v>
-      </c>
-      <c r="C37" s="5" t="s">
+      <c r="B37" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="C37" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E37" s="5">
+      <c r="D37" s="5">
         <v>2013</v>
       </c>
+      <c r="E37" s="6"/>
       <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6" t="s">
+      <c r="G37" s="6" t="s">
         <v>119</v>
       </c>
+      <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
@@ -8693,23 +8616,21 @@
       <c r="U37" s="2"/>
     </row>
     <row r="38" spans="1:21">
-      <c r="B38" s="2">
-        <v>2</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="D38" s="6" t="s">
+      <c r="B38" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E38" s="5">
+      <c r="D38" s="5">
         <v>2013</v>
       </c>
+      <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6" t="s">
+      <c r="G38" s="6" t="s">
         <v>119</v>
       </c>
+      <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
@@ -8724,23 +8645,21 @@
       <c r="U38" s="2"/>
     </row>
     <row r="39" spans="1:21">
-      <c r="B39" s="2">
-        <v>2</v>
-      </c>
-      <c r="C39" s="5" t="s">
+      <c r="B39" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E39" s="5">
+      <c r="D39" s="5">
         <v>2016</v>
       </c>
+      <c r="E39" s="6"/>
       <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6" t="s">
+      <c r="G39" s="6" t="s">
         <v>119</v>
       </c>
+      <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
@@ -8757,23 +8676,24 @@
       <c r="U39" s="2"/>
     </row>
     <row r="40" spans="1:21">
-      <c r="B40" s="2" t="s">
+      <c r="A40" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="B40" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>624</v>
-      </c>
-      <c r="E40" s="5">
+      <c r="C40" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="D40" s="5">
         <v>2019</v>
       </c>
+      <c r="E40" s="6"/>
       <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6" t="s">
+      <c r="G40" s="6" t="s">
         <v>119</v>
       </c>
+      <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
@@ -8788,23 +8708,21 @@
       <c r="U40" s="2"/>
     </row>
     <row r="41" spans="1:21">
-      <c r="B41" s="2">
-        <v>2</v>
-      </c>
-      <c r="C41" s="5" t="s">
+      <c r="B41" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="C41" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E41" s="5">
+      <c r="D41" s="5">
         <v>1932</v>
       </c>
+      <c r="E41" s="6"/>
       <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6" t="s">
+      <c r="G41" s="6" t="s">
         <v>119</v>
       </c>
+      <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
@@ -8819,23 +8737,21 @@
       <c r="U41" s="2"/>
     </row>
     <row r="42" spans="1:21">
-      <c r="B42" s="2">
-        <v>2</v>
-      </c>
-      <c r="C42" s="5" t="s">
+      <c r="B42" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="C42" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="5">
+      <c r="D42" s="5">
         <v>2016</v>
       </c>
+      <c r="E42" s="6"/>
       <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6" t="s">
+      <c r="G42" s="6" t="s">
         <v>119</v>
       </c>
+      <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
@@ -8850,23 +8766,21 @@
       <c r="U42" s="2"/>
     </row>
     <row r="43" spans="1:21">
-      <c r="B43" s="2">
-        <v>2</v>
-      </c>
-      <c r="C43" s="5" t="s">
+      <c r="B43" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="C43" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="E43" s="7">
+      <c r="D43" s="7">
         <v>2012</v>
       </c>
+      <c r="E43" s="6"/>
       <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6" t="s">
+      <c r="G43" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
@@ -8883,22 +8797,20 @@
       <c r="U43" s="2"/>
     </row>
     <row r="44" spans="1:21">
-      <c r="B44" s="2">
-        <v>2</v>
-      </c>
-      <c r="C44" s="5" t="s">
+      <c r="B44" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="C44" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="E44" s="5">
+      <c r="D44" s="5">
         <v>2004</v>
       </c>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6" t="s">
+      <c r="E44" s="6"/>
+      <c r="F44" s="6" t="s">
         <v>331</v>
       </c>
+      <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
@@ -8914,18 +8826,16 @@
       <c r="U44" s="2"/>
     </row>
     <row r="45" spans="1:21">
-      <c r="B45" s="2">
-        <v>2</v>
-      </c>
-      <c r="C45" s="5" t="s">
+      <c r="B45" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="C45" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="E45" s="7">
+      <c r="D45" s="7">
         <v>2011</v>
       </c>
+      <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
@@ -8944,21 +8854,16 @@
       </c>
     </row>
     <row r="46" spans="1:21">
-      <c r="A46" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="2">
-        <v>2</v>
-      </c>
-      <c r="C46" s="5" t="s">
+      <c r="B46" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="C46" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="E46" s="5">
+      <c r="D46" s="5">
         <v>1994</v>
       </c>
+      <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
@@ -8976,18 +8881,16 @@
       <c r="U46" s="2"/>
     </row>
     <row r="47" spans="1:21">
-      <c r="B47" s="2">
-        <v>2</v>
-      </c>
-      <c r="C47" s="5" t="s">
+      <c r="B47" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="C47" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="E47" s="5">
+      <c r="D47" s="5">
         <v>1990</v>
       </c>
+      <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -9004,18 +8907,16 @@
       <c r="S47" s="6"/>
     </row>
     <row r="48" spans="1:21">
-      <c r="B48" s="2">
-        <v>2</v>
-      </c>
-      <c r="C48" s="7" t="s">
+      <c r="B48" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="C48" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="E48" s="7">
+      <c r="D48" s="7">
         <v>2013</v>
       </c>
+      <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -9032,21 +8933,19 @@
       <c r="S48" s="6"/>
     </row>
     <row r="49" spans="1:21">
-      <c r="B49" s="2">
-        <v>2</v>
-      </c>
-      <c r="C49" s="5" t="s">
+      <c r="B49" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="C49" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="E49" s="7">
+      <c r="D49" s="7">
         <v>1987</v>
       </c>
+      <c r="E49" s="6"/>
       <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
@@ -9062,18 +8961,16 @@
       </c>
     </row>
     <row r="50" spans="1:21">
-      <c r="B50" s="2">
-        <v>2</v>
-      </c>
-      <c r="C50" s="5" t="s">
+      <c r="B50" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="C50" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="E50" s="5">
+      <c r="D50" s="5">
         <v>1956</v>
       </c>
+      <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
@@ -9091,18 +8988,16 @@
       <c r="U50" s="2"/>
     </row>
     <row r="51" spans="1:21">
-      <c r="B51" s="2">
-        <v>2</v>
-      </c>
-      <c r="C51" s="5" t="s">
+      <c r="B51" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="C51" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="E51" s="5">
+      <c r="D51" s="5">
         <v>1956</v>
       </c>
+      <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
@@ -9120,27 +9015,25 @@
       <c r="U51" s="2"/>
     </row>
     <row r="52" spans="1:21">
-      <c r="B52" s="2">
-        <v>2</v>
+      <c r="B52" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E52" s="5">
+      <c r="D52" s="5">
         <v>2003</v>
       </c>
-      <c r="F52" s="6"/>
-      <c r="G52" s="5"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6" t="s">
+      <c r="K52" s="6" t="s">
         <v>113</v>
       </c>
+      <c r="L52" s="6"/>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
       <c r="O52" s="6"/>
@@ -9153,18 +9046,16 @@
       <c r="U52" s="2"/>
     </row>
     <row r="53" spans="1:21">
-      <c r="B53" s="2">
-        <v>2</v>
-      </c>
-      <c r="C53" s="5" t="s">
+      <c r="B53" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="C53" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="E53" s="7">
+      <c r="D53" s="7">
         <v>2020</v>
       </c>
+      <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
@@ -9183,18 +9074,16 @@
       </c>
     </row>
     <row r="54" spans="1:21">
-      <c r="B54" s="2">
-        <v>2</v>
-      </c>
-      <c r="C54" s="5" t="s">
+      <c r="B54" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="C54" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E54" s="5">
+      <c r="D54" s="5">
         <v>1980</v>
       </c>
+      <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
@@ -9212,20 +9101,18 @@
       <c r="U54" s="2"/>
     </row>
     <row r="55" spans="1:21">
-      <c r="B55" s="2">
-        <v>2</v>
+      <c r="B55" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D55" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E55" s="5">
+      <c r="D55" s="5">
         <v>2013</v>
       </c>
-      <c r="F55" s="6"/>
-      <c r="G55" s="5"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
@@ -9241,65 +9128,54 @@
       <c r="U55" s="2"/>
     </row>
     <row r="56" spans="1:21" ht="21">
-      <c r="B56" s="2">
-        <v>2</v>
-      </c>
-      <c r="C56" s="3" t="s">
+      <c r="B56" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>613</v>
+      </c>
+      <c r="D56" s="4">
+        <v>2019</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="S56" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="D56" s="17" t="s">
-        <v>617</v>
-      </c>
-      <c r="E56" s="4">
-        <v>2019</v>
-      </c>
-      <c r="O56" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="R56" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="S56" s="2" t="s">
-        <v>606</v>
-      </c>
     </row>
     <row r="57" spans="1:21" ht="21">
-      <c r="B57" s="2">
-        <v>2</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>616</v>
-      </c>
-      <c r="E57" s="3">
+      <c r="B57" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="D57" s="3">
         <v>2022</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="G57" s="2" t="s">
+      <c r="S57" s="14" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="58" spans="1:21">
-      <c r="B58" s="2">
-        <v>4</v>
-      </c>
-      <c r="C58" s="5" t="s">
+      <c r="B58" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="C58" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="E58" s="5">
+      <c r="D58" s="5">
         <v>2013</v>
       </c>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6" t="s">
+      <c r="E58" s="6"/>
+      <c r="F58" s="6" t="s">
         <v>331</v>
       </c>
+      <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
@@ -9310,30 +9186,33 @@
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
       <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
+      <c r="R58" s="6" t="s">
+        <v>628</v>
+      </c>
       <c r="S58" s="6" t="s">
         <v>365</v>
       </c>
       <c r="U58" s="2"/>
     </row>
     <row r="59" spans="1:21">
-      <c r="B59" s="2" t="s">
+      <c r="A59" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="B59" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="C59" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="E59" s="5">
+      <c r="D59" s="5">
         <v>1931</v>
       </c>
+      <c r="E59" s="6"/>
       <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6" t="s">
+      <c r="G59" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="H59" s="6"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
@@ -9348,23 +9227,21 @@
       <c r="U59" s="2"/>
     </row>
     <row r="60" spans="1:21">
-      <c r="B60" s="2">
-        <v>4</v>
-      </c>
-      <c r="C60" s="5" t="s">
+      <c r="B60" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="C60" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E60" s="5">
+      <c r="D60" s="5">
         <v>1949</v>
       </c>
+      <c r="E60" s="6"/>
       <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6" t="s">
+      <c r="G60" s="6" t="s">
         <v>119</v>
       </c>
+      <c r="H60" s="6"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
@@ -9374,33 +9251,30 @@
       <c r="O60" s="6"/>
       <c r="P60" s="6"/>
       <c r="Q60" s="6"/>
-      <c r="R60" s="6"/>
+      <c r="R60" s="6" t="s">
+        <v>628</v>
+      </c>
       <c r="S60" s="6" t="s">
         <v>354</v>
       </c>
       <c r="U60" s="2"/>
     </row>
     <row r="61" spans="1:21">
-      <c r="A61" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="B61" s="2">
-        <v>4</v>
-      </c>
-      <c r="C61" s="5" t="s">
+      <c r="B61" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="C61" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E61" s="5">
+      <c r="D61" s="5">
         <v>1996</v>
       </c>
+      <c r="E61" s="6"/>
       <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6" t="s">
+      <c r="G61" s="6" t="s">
         <v>119</v>
       </c>
+      <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
@@ -9410,31 +9284,28 @@
       <c r="O61" s="6"/>
       <c r="P61" s="6"/>
       <c r="Q61" s="6"/>
-      <c r="R61" s="6"/>
+      <c r="R61" s="6" t="s">
+        <v>628</v>
+      </c>
       <c r="S61" s="6"/>
       <c r="U61" s="2"/>
     </row>
     <row r="62" spans="1:21" ht="16" customHeight="1">
-      <c r="A62" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62" s="2">
-        <v>4</v>
-      </c>
-      <c r="C62" s="5" t="s">
+      <c r="B62" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="C62" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E62" s="5">
+      <c r="D62" s="5">
         <v>2012</v>
       </c>
+      <c r="E62" s="6"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6" t="s">
+      <c r="G62" s="6" t="s">
         <v>119</v>
       </c>
+      <c r="H62" s="6"/>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
@@ -9444,28 +9315,28 @@
       <c r="O62" s="6"/>
       <c r="P62" s="6"/>
       <c r="Q62" s="6"/>
-      <c r="R62" s="6"/>
+      <c r="R62" s="6" t="s">
+        <v>628</v>
+      </c>
       <c r="S62" s="6"/>
       <c r="U62" s="2"/>
     </row>
     <row r="63" spans="1:21" ht="16" customHeight="1">
-      <c r="B63" s="2">
-        <v>4</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="D63" s="6" t="s">
+      <c r="B63" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E63" s="5">
+      <c r="D63" s="5">
         <v>2014</v>
       </c>
+      <c r="E63" s="6"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6" t="s">
+      <c r="G63" s="6" t="s">
         <v>119</v>
       </c>
+      <c r="H63" s="6"/>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
@@ -9475,28 +9346,28 @@
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
       <c r="Q63" s="6"/>
-      <c r="R63" s="6"/>
+      <c r="R63" s="6" t="s">
+        <v>628</v>
+      </c>
       <c r="S63" s="6"/>
       <c r="U63" s="2"/>
     </row>
     <row r="64" spans="1:21">
-      <c r="B64" s="2">
-        <v>4</v>
-      </c>
-      <c r="C64" s="5" t="s">
+      <c r="B64" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="C64" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E64" s="5">
+      <c r="D64" s="5">
         <v>2012</v>
       </c>
+      <c r="E64" s="6"/>
       <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6" t="s">
+      <c r="G64" s="6" t="s">
         <v>119</v>
       </c>
+      <c r="H64" s="6"/>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
@@ -9506,28 +9377,28 @@
       <c r="O64" s="6"/>
       <c r="P64" s="6"/>
       <c r="Q64" s="6"/>
-      <c r="R64" s="6"/>
+      <c r="R64" s="6" t="s">
+        <v>628</v>
+      </c>
       <c r="S64" s="6"/>
       <c r="U64" s="2"/>
     </row>
     <row r="65" spans="1:21">
-      <c r="B65" s="2">
-        <v>4</v>
-      </c>
-      <c r="C65" s="5" t="s">
+      <c r="B65" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="C65" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E65" s="5">
+      <c r="D65" s="5">
         <v>2012</v>
       </c>
+      <c r="E65" s="6"/>
       <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6" t="s">
+      <c r="G65" s="6" t="s">
         <v>119</v>
       </c>
+      <c r="H65" s="6"/>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
@@ -9537,30 +9408,30 @@
       <c r="O65" s="6"/>
       <c r="P65" s="6"/>
       <c r="Q65" s="6"/>
-      <c r="R65" s="6"/>
+      <c r="R65" s="6" t="s">
+        <v>628</v>
+      </c>
       <c r="S65" s="6" t="s">
         <v>305</v>
       </c>
       <c r="U65" s="2"/>
     </row>
     <row r="66" spans="1:21">
-      <c r="B66" s="2">
-        <v>4</v>
-      </c>
-      <c r="C66" s="5" t="s">
+      <c r="B66" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="C66" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E66" s="5">
+      <c r="D66" s="5">
         <v>1951</v>
       </c>
+      <c r="E66" s="6"/>
       <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6" t="s">
+      <c r="G66" s="6" t="s">
         <v>119</v>
       </c>
+      <c r="H66" s="6"/>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
@@ -9570,28 +9441,28 @@
       <c r="O66" s="6"/>
       <c r="P66" s="6"/>
       <c r="Q66" s="6"/>
-      <c r="R66" s="6"/>
+      <c r="R66" s="6" t="s">
+        <v>628</v>
+      </c>
       <c r="S66" s="6"/>
       <c r="U66" s="2"/>
     </row>
     <row r="67" spans="1:21">
-      <c r="B67" s="2">
-        <v>4</v>
-      </c>
-      <c r="C67" s="5" t="s">
+      <c r="B67" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="C67" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E67" s="5">
+      <c r="D67" s="5">
         <v>2007</v>
       </c>
+      <c r="E67" s="6"/>
       <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6" t="s">
+      <c r="G67" s="6" t="s">
         <v>329</v>
       </c>
+      <c r="H67" s="6"/>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
@@ -9601,63 +9472,63 @@
       <c r="O67" s="6"/>
       <c r="P67" s="6"/>
       <c r="Q67" s="6"/>
-      <c r="R67" s="6"/>
+      <c r="R67" s="6" t="s">
+        <v>628</v>
+      </c>
       <c r="S67" s="6" t="s">
         <v>356</v>
       </c>
       <c r="U67" s="2"/>
     </row>
     <row r="68" spans="1:21">
-      <c r="B68" s="2">
-        <v>4</v>
-      </c>
-      <c r="C68" s="5" t="s">
+      <c r="B68" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="C68" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E68" s="5">
+      <c r="D68" s="5">
         <v>1988</v>
       </c>
+      <c r="E68" s="6"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6" t="s">
+      <c r="G68" s="6" t="s">
         <v>119</v>
       </c>
+      <c r="H68" s="9"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
-      <c r="L68" s="9"/>
+      <c r="L68" s="6"/>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
       <c r="O68" s="6"/>
       <c r="P68" s="6"/>
       <c r="Q68" s="6"/>
-      <c r="R68" s="6"/>
+      <c r="R68" s="6" t="s">
+        <v>628</v>
+      </c>
       <c r="S68" s="6" t="s">
         <v>64</v>
       </c>
       <c r="U68" s="2"/>
     </row>
     <row r="69" spans="1:21">
-      <c r="B69" s="2">
-        <v>4</v>
-      </c>
-      <c r="C69" s="5" t="s">
+      <c r="B69" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="C69" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E69" s="5">
+      <c r="D69" s="5">
         <v>2001</v>
       </c>
+      <c r="E69" s="6"/>
       <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6" t="s">
+      <c r="G69" s="6" t="s">
         <v>119</v>
       </c>
+      <c r="H69" s="6"/>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
@@ -9667,44 +9538,47 @@
       <c r="O69" s="6"/>
       <c r="P69" s="6"/>
       <c r="Q69" s="6"/>
-      <c r="R69" s="6"/>
+      <c r="R69" s="6" t="s">
+        <v>628</v>
+      </c>
       <c r="S69" s="6"/>
       <c r="U69" s="2"/>
     </row>
     <row r="70" spans="1:21" ht="21">
-      <c r="B70" s="2">
-        <v>4</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>626</v>
-      </c>
-      <c r="E70" s="3">
+      <c r="B70" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>622</v>
+      </c>
+      <c r="D70" s="3">
         <v>2021</v>
       </c>
+      <c r="R70" s="6" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="71" spans="1:21">
-      <c r="B71" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C71" s="5" t="s">
+      <c r="A71" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="C71" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E71" s="5">
+      <c r="D71" s="5">
         <v>1995</v>
       </c>
-      <c r="F71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6" t="s">
+        <v>331</v>
+      </c>
       <c r="G71" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="H71" s="6" t="s">
         <v>327</v>
       </c>
+      <c r="H71" s="6"/>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
@@ -9712,43 +9586,44 @@
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
       <c r="O71" s="6"/>
-      <c r="P71" s="6"/>
-      <c r="Q71" s="6" t="s">
+      <c r="P71" s="6" t="s">
         <v>59</v>
       </c>
+      <c r="Q71" s="6"/>
       <c r="R71" s="6"/>
       <c r="S71" s="6"/>
       <c r="U71" s="2"/>
     </row>
     <row r="72" spans="1:21">
-      <c r="B72" s="2" t="s">
+      <c r="A72" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="B72" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="C72" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E72" s="5">
+      <c r="D72" s="5">
         <v>2010</v>
       </c>
+      <c r="E72" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="F72" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G72" s="6" t="s">
         <v>331</v>
       </c>
+      <c r="G72" s="6"/>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
-      <c r="N72" s="6"/>
-      <c r="O72" s="6" t="s">
+      <c r="N72" s="6" t="s">
         <v>326</v>
       </c>
+      <c r="O72" s="6"/>
       <c r="P72" s="6"/>
       <c r="Q72" s="6"/>
       <c r="R72" s="6"/>
@@ -9756,21 +9631,22 @@
       <c r="U72" s="2"/>
     </row>
     <row r="73" spans="1:21">
-      <c r="B73" s="2" t="s">
+      <c r="A73" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="B73" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="C73" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="E73" s="5">
+      <c r="D73" s="5">
         <v>2012</v>
       </c>
-      <c r="F73" s="6" t="s">
+      <c r="E73" s="6" t="s">
         <v>0</v>
       </c>
+      <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
@@ -9787,23 +9663,24 @@
       <c r="U73" s="2"/>
     </row>
     <row r="74" spans="1:21">
+      <c r="A74" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="B74" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="C74" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="C74" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="E74" s="5">
+      <c r="D74" s="5">
         <v>2012</v>
       </c>
+      <c r="E74" s="6"/>
       <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6" t="s">
+      <c r="G74" s="6" t="s">
         <v>323</v>
       </c>
+      <c r="H74" s="6"/>
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
@@ -9818,23 +9695,24 @@
       <c r="U74" s="2"/>
     </row>
     <row r="75" spans="1:21">
-      <c r="B75" s="2" t="s">
+      <c r="A75" s="2" t="s">
         <v>369</v>
       </c>
+      <c r="B75" s="5" t="s">
+        <v>301</v>
+      </c>
       <c r="C75" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D75" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E75" s="5">
+      <c r="D75" s="5">
         <v>1958</v>
       </c>
-      <c r="F75" s="6"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="6" t="s">
+      <c r="E75" s="6"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="6" t="s">
         <v>120</v>
       </c>
+      <c r="H75" s="6"/>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
@@ -9849,29 +9727,30 @@
       <c r="U75" s="2"/>
     </row>
     <row r="76" spans="1:21">
-      <c r="B76" s="2" t="s">
+      <c r="A76" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="B76" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="C76" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E76" s="5">
+      <c r="D76" s="5">
         <v>2004</v>
       </c>
-      <c r="F76" s="6" t="s">
+      <c r="E76" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6" t="s">
+      <c r="F76" s="6"/>
+      <c r="G76" s="6" t="s">
         <v>119</v>
       </c>
+      <c r="H76" s="9"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
-      <c r="L76" s="9"/>
+      <c r="L76" s="6"/>
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
       <c r="O76" s="6"/>
@@ -9883,25 +9762,23 @@
     </row>
     <row r="77" spans="1:21">
       <c r="A77" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B77" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="B77" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="C77" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E77" s="5">
+      <c r="D77" s="5">
         <v>1978</v>
       </c>
+      <c r="E77" s="6"/>
       <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6" t="s">
+      <c r="G77" s="6" t="s">
         <v>119</v>
       </c>
+      <c r="H77" s="6"/>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
@@ -9913,28 +9790,29 @@
       <c r="Q77" s="6"/>
       <c r="R77" s="6"/>
       <c r="S77" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U77" s="2"/>
     </row>
     <row r="78" spans="1:21">
-      <c r="B78" s="2" t="s">
+      <c r="A78" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C78" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="D78" s="6" t="s">
+      <c r="B78" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C78" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E78" s="5">
+      <c r="D78" s="5">
         <v>1979</v>
       </c>
+      <c r="E78" s="6"/>
       <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6" t="s">
+      <c r="G78" s="6" t="s">
         <v>119</v>
       </c>
+      <c r="H78" s="6"/>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
@@ -9951,23 +9829,24 @@
       <c r="U78" s="2"/>
     </row>
     <row r="79" spans="1:21">
-      <c r="B79" s="2" t="s">
+      <c r="A79" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="B79" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="C79" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E79" s="5">
+      <c r="D79" s="5">
         <v>1953</v>
       </c>
+      <c r="E79" s="6"/>
       <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6" t="s">
+      <c r="G79" s="6" t="s">
         <v>119</v>
       </c>
+      <c r="H79" s="6"/>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
@@ -9982,23 +9861,24 @@
       <c r="U79" s="2"/>
     </row>
     <row r="80" spans="1:21">
-      <c r="B80" s="2" t="s">
+      <c r="A80" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C80" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="D80" s="6" t="s">
+      <c r="B80" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C80" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E80" s="5">
+      <c r="D80" s="5">
         <v>1969</v>
       </c>
+      <c r="E80" s="6"/>
       <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6" t="s">
+      <c r="G80" s="6" t="s">
         <v>119</v>
       </c>
+      <c r="H80" s="6"/>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
@@ -10012,24 +9892,25 @@
       <c r="S80" s="6"/>
       <c r="U80" s="2"/>
     </row>
-    <row r="81" spans="2:21">
-      <c r="B81" s="2" t="s">
+    <row r="81" spans="1:21">
+      <c r="A81" s="2" t="s">
         <v>369</v>
       </c>
+      <c r="B81" s="5" t="s">
+        <v>313</v>
+      </c>
       <c r="C81" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="D81" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E81" s="5">
+      <c r="D81" s="5">
         <v>1986</v>
       </c>
-      <c r="F81" s="6"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="6" t="s">
+      <c r="E81" s="6"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="6" t="s">
         <v>328</v>
       </c>
+      <c r="H81" s="6"/>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
@@ -10043,24 +9924,25 @@
       <c r="S81" s="6"/>
       <c r="U81" s="2"/>
     </row>
-    <row r="82" spans="2:21">
-      <c r="B82" s="2" t="s">
+    <row r="82" spans="1:21">
+      <c r="A82" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="B82" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="C82" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="E82" s="5">
+      <c r="D82" s="5">
         <v>1971</v>
       </c>
+      <c r="E82" s="6"/>
       <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6" t="s">
+      <c r="G82" s="6" t="s">
         <v>328</v>
       </c>
+      <c r="H82" s="6"/>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
@@ -10073,19 +9955,20 @@
       <c r="R82" s="6"/>
       <c r="S82" s="6"/>
     </row>
-    <row r="83" spans="2:21">
-      <c r="B83" s="2" t="s">
+    <row r="83" spans="1:21">
+      <c r="A83" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="B83" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="C83" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="E83" s="5">
+      <c r="D83" s="5">
         <v>2007</v>
       </c>
+      <c r="E83" s="6"/>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
@@ -10104,29 +9987,30 @@
       </c>
       <c r="U83" s="2"/>
     </row>
-    <row r="84" spans="2:21">
-      <c r="B84" s="2" t="s">
+    <row r="84" spans="1:21">
+      <c r="A84" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="B84" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="C84" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="E84" s="7">
+      <c r="D84" s="7">
         <v>2012</v>
       </c>
+      <c r="E84" s="6"/>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
-      <c r="L84" s="6"/>
-      <c r="M84" s="6" t="s">
+      <c r="L84" s="6" t="s">
         <v>116</v>
       </c>
+      <c r="M84" s="6"/>
       <c r="N84" s="6"/>
       <c r="O84" s="6"/>
       <c r="P84" s="6"/>
@@ -10135,28 +10019,29 @@
       <c r="S84" s="6"/>
       <c r="U84" s="2"/>
     </row>
-    <row r="85" spans="2:21">
-      <c r="B85" s="2" t="s">
+    <row r="85" spans="1:21">
+      <c r="A85" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="B85" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="C85" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="E85" s="5">
+      <c r="D85" s="5">
         <v>2020</v>
       </c>
+      <c r="E85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
-      <c r="L85" s="6" t="s">
+      <c r="K85" s="6" t="s">
         <v>113</v>
       </c>
+      <c r="L85" s="6"/>
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
       <c r="O85" s="6"/>
@@ -10166,27 +10051,28 @@
       <c r="S85" s="6"/>
       <c r="U85" s="2"/>
     </row>
-    <row r="86" spans="2:21">
-      <c r="B86" s="2" t="s">
+    <row r="86" spans="1:21">
+      <c r="A86" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="B86" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="C86" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E86" s="5">
+      <c r="D86" s="5">
         <v>2008</v>
       </c>
+      <c r="E86" s="6"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6" t="s">
+      <c r="J86" s="6" t="s">
         <v>114</v>
       </c>
+      <c r="K86" s="6"/>
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
       <c r="N86" s="6"/>
@@ -10197,19 +10083,20 @@
       <c r="S86" s="6"/>
       <c r="U86" s="2"/>
     </row>
-    <row r="87" spans="2:21">
-      <c r="B87" s="2" t="s">
+    <row r="87" spans="1:21">
+      <c r="A87" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="B87" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="C87" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="E87" s="7">
+      <c r="D87" s="7">
         <v>1933</v>
       </c>
+      <c r="E87" s="6"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
@@ -10225,19 +10112,20 @@
       <c r="R87" s="6"/>
       <c r="S87" s="6"/>
     </row>
-    <row r="88" spans="2:21">
-      <c r="B88" s="2" t="s">
+    <row r="88" spans="1:21">
+      <c r="A88" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="B88" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="C88" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="E88" s="7">
+      <c r="D88" s="7">
         <v>1954</v>
       </c>
+      <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
@@ -10253,19 +10141,20 @@
       <c r="R88" s="6"/>
       <c r="S88" s="6"/>
     </row>
-    <row r="89" spans="2:21">
-      <c r="B89" s="2" t="s">
+    <row r="89" spans="1:21">
+      <c r="A89" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="B89" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D89" s="8" t="s">
+      <c r="C89" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E89" s="7">
+      <c r="D89" s="7">
         <v>1941</v>
       </c>
+      <c r="E89" s="6"/>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
@@ -10281,19 +10170,20 @@
       <c r="R89" s="6"/>
       <c r="S89" s="6"/>
     </row>
-    <row r="90" spans="2:21">
-      <c r="B90" s="2" t="s">
+    <row r="90" spans="1:21">
+      <c r="A90" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="B90" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="D90" s="8" t="s">
+      <c r="C90" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="E90" s="7">
+      <c r="D90" s="7">
         <v>1957</v>
       </c>
+      <c r="E90" s="6"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
@@ -10309,19 +10199,20 @@
       <c r="R90" s="6"/>
       <c r="S90" s="6"/>
     </row>
-    <row r="91" spans="2:21">
-      <c r="B91" s="2" t="s">
+    <row r="91" spans="1:21">
+      <c r="A91" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="B91" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D91" s="20" t="s">
+      <c r="C91" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="E91" s="7">
+      <c r="D91" s="7">
         <v>1948</v>
       </c>
+      <c r="E91" s="6"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
@@ -10337,19 +10228,20 @@
       <c r="R91" s="6"/>
       <c r="S91" s="6"/>
     </row>
-    <row r="92" spans="2:21">
-      <c r="B92" s="2" t="s">
+    <row r="92" spans="1:21">
+      <c r="A92" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="B92" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D92" s="8" t="s">
+      <c r="C92" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="E92" s="7">
+      <c r="D92" s="7">
         <v>1941</v>
       </c>
+      <c r="E92" s="6"/>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
@@ -10365,19 +10257,20 @@
       <c r="R92" s="6"/>
       <c r="S92" s="6"/>
     </row>
-    <row r="93" spans="2:21">
-      <c r="B93" s="2" t="s">
+    <row r="93" spans="1:21">
+      <c r="A93" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="B93" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="D93" s="8" t="s">
+      <c r="C93" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="E93" s="7">
+      <c r="D93" s="7">
         <v>2013</v>
       </c>
+      <c r="E93" s="6"/>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
@@ -10395,19 +10288,20 @@
         <v>361</v>
       </c>
     </row>
-    <row r="94" spans="2:21">
-      <c r="B94" s="2" t="s">
+    <row r="94" spans="1:21">
+      <c r="A94" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="B94" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D94" s="8" t="s">
+      <c r="C94" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="E94" s="5">
+      <c r="D94" s="5">
         <v>1945</v>
       </c>
+      <c r="E94" s="6"/>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
@@ -10424,19 +10318,20 @@
       <c r="S94" s="6"/>
       <c r="U94" s="2"/>
     </row>
-    <row r="95" spans="2:21">
-      <c r="B95" s="2" t="s">
+    <row r="95" spans="1:21">
+      <c r="A95" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="B95" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D95" s="8" t="s">
+      <c r="C95" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="E95" s="7">
+      <c r="D95" s="7">
         <v>1942</v>
       </c>
+      <c r="E95" s="6"/>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
@@ -10452,19 +10347,20 @@
       <c r="R95" s="6"/>
       <c r="S95" s="6"/>
     </row>
-    <row r="96" spans="2:21">
-      <c r="B96" s="2" t="s">
+    <row r="96" spans="1:21">
+      <c r="A96" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="B96" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="C96" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="E96" s="7">
+      <c r="D96" s="7">
         <v>1984</v>
       </c>
+      <c r="E96" s="6"/>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
@@ -10481,18 +10377,19 @@
       <c r="S96" s="6"/>
     </row>
     <row r="97" spans="1:21">
-      <c r="B97" s="2" t="s">
+      <c r="A97" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="B97" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="C97" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="E97" s="7">
+      <c r="D97" s="7">
         <v>1986</v>
       </c>
+      <c r="E97" s="6"/>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
@@ -10509,18 +10406,19 @@
       <c r="S97" s="6"/>
     </row>
     <row r="98" spans="1:21">
-      <c r="B98" s="2" t="s">
+      <c r="A98" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="B98" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D98" s="8" t="s">
+      <c r="C98" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="E98" s="7">
+      <c r="D98" s="7">
         <v>1944</v>
       </c>
+      <c r="E98" s="6"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
@@ -10537,28 +10435,29 @@
       <c r="S98" s="6"/>
     </row>
     <row r="99" spans="1:21">
-      <c r="B99" s="2" t="s">
+      <c r="A99" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="B99" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D99" s="8" t="s">
+      <c r="C99" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="E99" s="5">
+      <c r="D99" s="5">
         <v>1933</v>
       </c>
+      <c r="E99" s="6"/>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
       <c r="K99" s="6"/>
-      <c r="L99" s="6"/>
-      <c r="M99" s="6" t="s">
+      <c r="L99" s="6" t="s">
         <v>116</v>
       </c>
+      <c r="M99" s="6"/>
       <c r="N99" s="6"/>
       <c r="O99" s="6"/>
       <c r="P99" s="6"/>
@@ -10568,18 +10467,19 @@
       <c r="U99" s="2"/>
     </row>
     <row r="100" spans="1:21">
-      <c r="B100" s="19" t="s">
+      <c r="A100" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="B100" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="C100" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="E100" s="7">
+      <c r="D100" s="7">
         <v>1985</v>
       </c>
+      <c r="E100" s="6"/>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
@@ -10597,20 +10497,18 @@
     </row>
     <row r="101" spans="1:21">
       <c r="A101" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B101" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="B101" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D101" s="12" t="s">
+      <c r="C101" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="E101" s="5">
+      <c r="D101" s="5">
         <v>1990</v>
       </c>
+      <c r="E101" s="6"/>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
@@ -10619,10 +10517,10 @@
       <c r="K101" s="6"/>
       <c r="L101" s="6"/>
       <c r="M101" s="6"/>
-      <c r="N101" s="6"/>
-      <c r="O101" s="6" t="s">
+      <c r="N101" s="6" t="s">
         <v>326</v>
       </c>
+      <c r="O101" s="6"/>
       <c r="P101" s="6"/>
       <c r="Q101" s="6"/>
       <c r="R101" s="6"/>
@@ -10630,18 +10528,19 @@
       <c r="U101" s="2"/>
     </row>
     <row r="102" spans="1:21">
-      <c r="B102" s="19" t="s">
+      <c r="A102" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="B102" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D102" s="8" t="s">
+      <c r="C102" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="E102" s="5">
+      <c r="D102" s="5">
         <v>1997</v>
       </c>
+      <c r="E102" s="6"/>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
@@ -10659,18 +10558,19 @@
       <c r="U102" s="2"/>
     </row>
     <row r="103" spans="1:21">
-      <c r="B103" s="19" t="s">
+      <c r="A103" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="B103" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D103" s="8" t="s">
+      <c r="C103" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="E103" s="5">
+      <c r="D103" s="5">
         <v>1979</v>
       </c>
+      <c r="E103" s="6"/>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
@@ -10688,49 +10588,51 @@
       <c r="U103" s="2"/>
     </row>
     <row r="104" spans="1:21">
-      <c r="B104" s="19" t="s">
+      <c r="A104" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="B104" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D104" s="8" t="s">
+      <c r="C104" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="E104" s="7">
+      <c r="D104" s="7">
         <v>2015</v>
       </c>
-      <c r="F104" s="6"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="8"/>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="8"/>
       <c r="M104" s="8"/>
-      <c r="N104" s="8"/>
+      <c r="N104" s="6"/>
       <c r="O104" s="6"/>
-      <c r="P104" s="6"/>
-      <c r="Q104" s="6" t="s">
+      <c r="P104" s="6" t="s">
         <v>59</v>
       </c>
+      <c r="Q104" s="6"/>
       <c r="R104" s="6"/>
       <c r="S104" s="6"/>
       <c r="U104" s="2"/>
     </row>
     <row r="105" spans="1:21">
-      <c r="B105" s="19" t="s">
+      <c r="A105" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="B105" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="D105" s="8" t="s">
+      <c r="C105" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="E105" s="5">
+      <c r="D105" s="5">
         <v>1978</v>
       </c>
+      <c r="E105" s="6"/>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
@@ -10748,18 +10650,19 @@
       <c r="U105" s="2"/>
     </row>
     <row r="106" spans="1:21">
-      <c r="B106" s="19" t="s">
+      <c r="A106" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="B106" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="C106" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="E106" s="5">
+      <c r="D106" s="5">
         <v>2008</v>
       </c>
+      <c r="E106" s="6"/>
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
@@ -10777,18 +10680,19 @@
       <c r="U106" s="2"/>
     </row>
     <row r="107" spans="1:21">
-      <c r="B107" s="19" t="s">
+      <c r="A107" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="B107" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D107" s="8" t="s">
+      <c r="C107" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="E107" s="7">
+      <c r="D107" s="7">
         <v>1999</v>
       </c>
+      <c r="E107" s="6"/>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
@@ -10805,18 +10709,19 @@
       <c r="S107" s="6"/>
     </row>
     <row r="108" spans="1:21">
-      <c r="B108" s="19" t="s">
+      <c r="A108" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="B108" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D108" s="8" t="s">
+      <c r="C108" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E108" s="7">
+      <c r="D108" s="7">
         <v>2000</v>
       </c>
+      <c r="E108" s="6"/>
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
@@ -10834,18 +10739,19 @@
       <c r="U108" s="2"/>
     </row>
     <row r="109" spans="1:21">
-      <c r="B109" s="2" t="s">
+      <c r="A109" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="B109" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D109" s="8" t="s">
+      <c r="C109" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="E109" s="7">
+      <c r="D109" s="7">
         <v>1952</v>
       </c>
+      <c r="E109" s="6"/>
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
@@ -10862,18 +10768,19 @@
       <c r="S109" s="6"/>
     </row>
     <row r="110" spans="1:21">
-      <c r="B110" s="2" t="s">
+      <c r="A110" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="B110" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="D110" s="8" t="s">
+      <c r="C110" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="E110" s="7">
+      <c r="D110" s="7">
         <v>2017</v>
       </c>
+      <c r="E110" s="6"/>
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
@@ -10892,18 +10799,19 @@
       </c>
     </row>
     <row r="111" spans="1:21">
-      <c r="B111" s="2" t="s">
+      <c r="A111" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="B111" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D111" s="8" t="s">
+      <c r="C111" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="E111" s="7">
+      <c r="D111" s="7">
         <v>2021</v>
       </c>
+      <c r="E111" s="6"/>
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
@@ -10920,18 +10828,19 @@
       <c r="S111" s="6"/>
     </row>
     <row r="112" spans="1:21">
-      <c r="B112" s="2" t="s">
+      <c r="A112" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="B112" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D112" s="8" t="s">
+      <c r="C112" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="E112" s="7">
+      <c r="D112" s="7">
         <v>1934</v>
       </c>
+      <c r="E112" s="6"/>
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
@@ -10947,21 +10856,22 @@
       <c r="R112" s="6"/>
       <c r="S112" s="6"/>
     </row>
-    <row r="113" spans="2:21">
-      <c r="B113" s="2" t="s">
+    <row r="113" spans="1:21">
+      <c r="A113" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="B113" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D113" s="9" t="s">
+      <c r="C113" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E113" s="5">
+      <c r="D113" s="5">
         <v>1988</v>
       </c>
-      <c r="F113" s="6"/>
-      <c r="G113" s="9"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="6"/>
       <c r="H113" s="6"/>
       <c r="I113" s="6"/>
       <c r="J113" s="6"/>
@@ -10976,19 +10886,20 @@
       <c r="S113" s="6"/>
       <c r="U113" s="2"/>
     </row>
-    <row r="114" spans="2:21">
-      <c r="B114" s="2" t="s">
+    <row r="114" spans="1:21">
+      <c r="A114" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="B114" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D114" s="8" t="s">
+      <c r="C114" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="E114" s="5">
+      <c r="D114" s="5">
         <v>2004</v>
       </c>
+      <c r="E114" s="6"/>
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
@@ -11005,21 +10916,22 @@
       <c r="S114" s="6"/>
       <c r="U114" s="2"/>
     </row>
-    <row r="115" spans="2:21">
-      <c r="B115" s="2" t="s">
+    <row r="115" spans="1:21">
+      <c r="A115" s="2" t="s">
         <v>369</v>
       </c>
+      <c r="B115" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="C115" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D115" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E115" s="5">
+      <c r="D115" s="5">
         <v>2019</v>
       </c>
-      <c r="F115" s="6"/>
-      <c r="G115" s="5"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="6"/>
       <c r="H115" s="6"/>
       <c r="I115" s="6"/>
       <c r="J115" s="6"/>
@@ -11034,19 +10946,20 @@
       <c r="S115" s="6"/>
       <c r="U115" s="2"/>
     </row>
-    <row r="116" spans="2:21">
-      <c r="B116" s="2" t="s">
+    <row r="116" spans="1:21">
+      <c r="A116" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="B116" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="D116" s="8" t="s">
+      <c r="C116" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="E116" s="7">
+      <c r="D116" s="7">
         <v>1967</v>
       </c>
+      <c r="E116" s="6"/>
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
@@ -11064,103 +10977,101 @@
         <v>363</v>
       </c>
     </row>
-    <row r="117" spans="2:21">
-      <c r="B117" s="2" t="s">
+    <row r="117" spans="1:21">
+      <c r="A117" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C117" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="E117" s="3">
+      <c r="B117" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D117" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="118" spans="2:21" ht="21">
-      <c r="B118" s="2" t="s">
+    <row r="118" spans="1:21" ht="21">
+      <c r="A118" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C118" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="D118" s="16" t="s">
-        <v>608</v>
-      </c>
-      <c r="E118" s="3">
+      <c r="B118" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>605</v>
+      </c>
+      <c r="D118" s="3">
         <v>1986</v>
       </c>
     </row>
-    <row r="119" spans="2:21" ht="17">
-      <c r="B119" s="2" t="s">
+    <row r="119" spans="1:21" ht="17">
+      <c r="A119" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="B119" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="C119" s="18" t="s">
+        <v>615</v>
+      </c>
+      <c r="D119" s="3">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" ht="21">
+      <c r="A120" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B120" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="D119" s="18" t="s">
+      <c r="C120" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D120" s="3">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" ht="21">
+      <c r="A121" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="C121" s="17" t="s">
+        <v>617</v>
+      </c>
+      <c r="D121" s="3">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" ht="21">
+      <c r="A122" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B122" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="E119" s="3">
-        <v>1945</v>
-      </c>
-    </row>
-    <row r="120" spans="2:21" ht="21">
-      <c r="B120" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="D120" s="17" t="s">
-        <v>620</v>
-      </c>
-      <c r="E120" s="3">
-        <v>2953</v>
-      </c>
-    </row>
-    <row r="121" spans="2:21" ht="21">
-      <c r="B121" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="D121" s="17" t="s">
-        <v>621</v>
-      </c>
-      <c r="E121" s="3">
-        <v>1955</v>
-      </c>
-    </row>
-    <row r="122" spans="2:21" ht="21">
-      <c r="B122" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="D122" s="17" t="s">
-        <v>622</v>
-      </c>
-      <c r="E122" s="3">
+      <c r="C122" s="17" t="s">
+        <v>618</v>
+      </c>
+      <c r="D122" s="3">
         <v>1982</v>
       </c>
     </row>
-    <row r="123" spans="2:21">
-      <c r="B123" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C123" s="5" t="s">
+    <row r="123" spans="1:21">
+      <c r="B123" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D123" s="8" t="s">
+      <c r="C123" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="E123" s="5">
+      <c r="D123" s="5">
         <v>2017</v>
       </c>
+      <c r="E123" s="6"/>
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
@@ -11169,10 +11080,10 @@
       <c r="K123" s="6"/>
       <c r="L123" s="6"/>
       <c r="M123" s="6"/>
-      <c r="N123" s="6"/>
-      <c r="O123" s="6" t="s">
+      <c r="N123" s="6" t="s">
         <v>326</v>
       </c>
+      <c r="O123" s="6"/>
       <c r="P123" s="6"/>
       <c r="Q123" s="6"/>
       <c r="R123" s="6"/>
@@ -11181,19 +11092,17 @@
       </c>
       <c r="U123" s="2"/>
     </row>
-    <row r="124" spans="2:21">
-      <c r="B124" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C124" s="5" t="s">
+    <row r="124" spans="1:21">
+      <c r="B124" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D124" s="8" t="s">
+      <c r="C124" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="E124" s="5">
+      <c r="D124" s="5">
         <v>2016</v>
       </c>
+      <c r="E124" s="6"/>
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
@@ -11201,10 +11110,10 @@
       <c r="J124" s="6"/>
       <c r="K124" s="6"/>
       <c r="L124" s="6"/>
-      <c r="M124" s="6"/>
-      <c r="N124" s="6" t="s">
+      <c r="M124" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="N124" s="6"/>
       <c r="O124" s="6"/>
       <c r="P124" s="6"/>
       <c r="Q124" s="6"/>
@@ -11212,19 +11121,17 @@
       <c r="S124" s="6"/>
       <c r="U124" s="2"/>
     </row>
-    <row r="125" spans="2:21">
-      <c r="B125" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C125" s="5" t="s">
+    <row r="125" spans="1:21">
+      <c r="B125" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D125" s="8" t="s">
+      <c r="C125" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="E125" s="5">
+      <c r="D125" s="5">
         <v>2016</v>
       </c>
+      <c r="E125" s="6"/>
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
@@ -11233,29 +11140,27 @@
       <c r="K125" s="6"/>
       <c r="L125" s="6"/>
       <c r="M125" s="6"/>
-      <c r="N125" s="6"/>
-      <c r="O125" s="6" t="s">
+      <c r="N125" s="6" t="s">
         <v>326</v>
       </c>
+      <c r="O125" s="6"/>
       <c r="P125" s="6"/>
       <c r="Q125" s="6"/>
       <c r="R125" s="6"/>
       <c r="S125" s="6"/>
       <c r="U125" s="2"/>
     </row>
-    <row r="126" spans="2:21">
-      <c r="B126" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C126" s="5" t="s">
+    <row r="126" spans="1:21">
+      <c r="B126" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="D126" s="11" t="s">
+      <c r="C126" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="E126" s="5">
+      <c r="D126" s="5">
         <v>1999</v>
       </c>
+      <c r="E126" s="6"/>
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
@@ -11263,10 +11168,10 @@
       <c r="J126" s="6"/>
       <c r="K126" s="6"/>
       <c r="L126" s="6"/>
-      <c r="M126" s="6"/>
-      <c r="N126" s="6" t="s">
+      <c r="M126" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="N126" s="6"/>
       <c r="O126" s="6"/>
       <c r="P126" s="6"/>
       <c r="Q126" s="6"/>
@@ -11274,25 +11179,23 @@
       <c r="S126" s="6"/>
       <c r="U126" s="2"/>
     </row>
-    <row r="127" spans="2:21">
-      <c r="B127" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C127" s="5" t="s">
+    <row r="127" spans="1:21">
+      <c r="B127" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D127" s="8" t="s">
+      <c r="C127" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="E127" s="5">
+      <c r="D127" s="5">
         <v>2019</v>
       </c>
+      <c r="E127" s="6"/>
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
-      <c r="H127" s="6"/>
-      <c r="I127" s="6" t="s">
+      <c r="H127" s="6" t="s">
         <v>112</v>
       </c>
+      <c r="I127" s="6"/>
       <c r="J127" s="6"/>
       <c r="K127" s="6"/>
       <c r="L127" s="6"/>
@@ -11305,21 +11208,19 @@
       <c r="S127" s="6"/>
       <c r="U127" s="2"/>
     </row>
-    <row r="128" spans="2:21">
-      <c r="B128" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C128" s="5" t="s">
+    <row r="128" spans="1:21">
+      <c r="B128" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="D128" s="9" t="s">
+      <c r="C128" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E128" s="5">
+      <c r="D128" s="5">
         <v>2013</v>
       </c>
-      <c r="F128" s="6"/>
-      <c r="G128" s="9"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="6"/>
       <c r="H128" s="6"/>
       <c r="I128" s="6"/>
       <c r="J128" s="6"/>
@@ -11328,27 +11229,25 @@
       <c r="M128" s="6"/>
       <c r="N128" s="6"/>
       <c r="O128" s="6"/>
-      <c r="P128" s="6"/>
-      <c r="Q128" s="6" t="s">
+      <c r="P128" s="6" t="s">
         <v>59</v>
       </c>
+      <c r="Q128" s="6"/>
       <c r="R128" s="6"/>
       <c r="S128" s="6"/>
       <c r="U128" s="2"/>
     </row>
     <row r="129" spans="1:21">
-      <c r="B129" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C129" s="5" t="s">
+      <c r="B129" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D129" s="8" t="s">
+      <c r="C129" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="E129" s="5">
+      <c r="D129" s="5">
         <v>1997</v>
       </c>
+      <c r="E129" s="6"/>
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
@@ -11356,10 +11255,10 @@
       <c r="J129" s="6"/>
       <c r="K129" s="6"/>
       <c r="L129" s="6"/>
-      <c r="M129" s="6"/>
-      <c r="N129" s="6" t="s">
+      <c r="M129" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="N129" s="6"/>
       <c r="O129" s="6"/>
       <c r="P129" s="6"/>
       <c r="Q129" s="6"/>
@@ -11368,27 +11267,25 @@
       <c r="U129" s="2"/>
     </row>
     <row r="130" spans="1:21">
-      <c r="B130" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C130" s="5" t="s">
+      <c r="B130" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D130" s="8" t="s">
+      <c r="C130" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="E130" s="5">
+      <c r="D130" s="5">
         <v>2020</v>
       </c>
+      <c r="E130" s="6"/>
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
       <c r="I130" s="6"/>
       <c r="J130" s="6"/>
-      <c r="K130" s="6"/>
-      <c r="L130" s="6" t="s">
+      <c r="K130" s="6" t="s">
         <v>113</v>
       </c>
+      <c r="L130" s="6"/>
       <c r="M130" s="6"/>
       <c r="N130" s="6"/>
       <c r="O130" s="6"/>
@@ -11399,18 +11296,16 @@
       <c r="U130" s="2"/>
     </row>
     <row r="131" spans="1:21">
-      <c r="B131" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C131" s="5" t="s">
+      <c r="B131" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D131" s="8" t="s">
+      <c r="C131" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E131" s="5">
+      <c r="D131" s="5">
         <v>1991</v>
       </c>
+      <c r="E131" s="6"/>
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
@@ -11428,18 +11323,16 @@
       <c r="U131" s="2"/>
     </row>
     <row r="132" spans="1:21" ht="46" customHeight="1">
-      <c r="B132" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C132" s="5" t="s">
+      <c r="B132" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D132" s="8" t="s">
+      <c r="C132" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E132" s="5">
+      <c r="D132" s="5">
         <v>1988</v>
       </c>
+      <c r="E132" s="6"/>
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
@@ -11457,18 +11350,16 @@
       <c r="U132" s="2"/>
     </row>
     <row r="133" spans="1:21">
-      <c r="B133" s="2" t="s">
-        <v>380</v>
+      <c r="B133" s="5" t="s">
+        <v>312</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="D133" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="E133" s="5">
+      <c r="D133" s="5">
         <v>1984</v>
       </c>
+      <c r="E133" s="6"/>
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
@@ -11486,18 +11377,16 @@
       <c r="U133" s="2"/>
     </row>
     <row r="134" spans="1:21">
-      <c r="B134" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C134" s="5" t="s">
+      <c r="B134" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D134" s="8" t="s">
+      <c r="C134" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E134" s="5">
+      <c r="D134" s="5">
         <v>2021</v>
       </c>
+      <c r="E134" s="6"/>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
@@ -11515,20 +11404,18 @@
       <c r="U134" s="2"/>
     </row>
     <row r="135" spans="1:21">
-      <c r="B135" s="2" t="s">
-        <v>380</v>
+      <c r="B135" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D135" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E135" s="5">
+      <c r="D135" s="5">
         <v>2010</v>
       </c>
-      <c r="F135" s="6"/>
-      <c r="G135" s="5"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="6"/>
       <c r="H135" s="6"/>
       <c r="I135" s="6"/>
       <c r="J135" s="6"/>
@@ -11544,18 +11431,16 @@
       <c r="U135" s="2"/>
     </row>
     <row r="136" spans="1:21">
-      <c r="B136" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C136" s="5" t="s">
+      <c r="B136" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D136" s="8" t="s">
+      <c r="C136" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E136" s="5">
+      <c r="D136" s="5">
         <v>2017</v>
       </c>
+      <c r="E136" s="6"/>
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
@@ -11573,21 +11458,16 @@
       <c r="U136" s="2"/>
     </row>
     <row r="137" spans="1:21">
-      <c r="A137" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C137" s="5" t="s">
+      <c r="B137" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D137" s="8" t="s">
+      <c r="C137" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="E137" s="5">
+      <c r="D137" s="5">
         <v>2021</v>
       </c>
+      <c r="E137" s="6"/>
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
@@ -11604,21 +11484,16 @@
       <c r="S137" s="6"/>
     </row>
     <row r="138" spans="1:21">
-      <c r="A138" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C138" s="7" t="s">
+      <c r="B138" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="D138" s="8" t="s">
+      <c r="C138" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="E138" s="7">
+      <c r="D138" s="7">
         <v>1984</v>
       </c>
+      <c r="E138" s="6"/>
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
@@ -11636,21 +11511,16 @@
       <c r="U138" s="2"/>
     </row>
     <row r="139" spans="1:21">
-      <c r="A139" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="C139" s="5" t="s">
+      <c r="B139" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D139" s="8" t="s">
+      <c r="C139" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="E139" s="5">
+      <c r="D139" s="5">
         <v>1954</v>
       </c>
+      <c r="E139" s="6"/>
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
@@ -11668,34 +11538,32 @@
       <c r="U139" s="2"/>
     </row>
     <row r="140" spans="1:21" ht="20">
-      <c r="B140" s="2" t="s">
+      <c r="A140" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C140" s="21" t="s">
-        <v>627</v>
-      </c>
-      <c r="E140" s="3">
+      <c r="B140" s="20" t="s">
+        <v>623</v>
+      </c>
+      <c r="D140" s="3">
         <v>2010</v>
       </c>
     </row>
-    <row r="144" spans="1:21">
-      <c r="B144" s="2" t="s">
+    <row r="141" spans="1:21">
+      <c r="A141" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C144" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="D144" s="14" t="s">
-        <v>611</v>
+      <c r="B141" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="S141" s="14" t="s">
+        <v>608</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U144">
-    <sortCondition ref="B2:B144"/>
-  </sortState>
   <hyperlinks>
     <hyperlink ref="S23" r:id="rId1" xr:uid="{68A0795A-C868-D44F-B599-7005E3FEB4D6}"/>
-    <hyperlink ref="D144" r:id="rId2" display="https://www.google.com/imgres?imgurl=http%3A%2F%2Fwww.limitedruns.com%2Fmedia%2Fcache%2Ff8%2Ff5%2Ff8f5ee3e97fa99cd2b56a5398e187362.jpg&amp;imgrefurl=https%3A%2F%2Fwww.limitedruns.com%2Foriginal%2Fmovie-posters%2Fadventure%2Fjaws-of-the-jungle%2F&amp;tbnid=nZg0Vg5xoJQGKM&amp;vet=12ahUKEwjq_oWBrL_3AhUPNd8KHZAAAo8QMyhYegUIARDiAg..i&amp;docid=ZbY-JK7XketlrM&amp;w=424&amp;h=627&amp;q=jungle%20movie%20%20posters&amp;ved=2ahUKEwjq_oWBrL_3AhUPNd8KHZAAAo8QMyhYegUIARDiAg" xr:uid="{A33A28C5-9627-7E48-8568-2968087FE2FB}"/>
+    <hyperlink ref="S141" r:id="rId2" display="https://www.google.com/imgres?imgurl=http%3A%2F%2Fwww.limitedruns.com%2Fmedia%2Fcache%2Ff8%2Ff5%2Ff8f5ee3e97fa99cd2b56a5398e187362.jpg&amp;imgrefurl=https%3A%2F%2Fwww.limitedruns.com%2Foriginal%2Fmovie-posters%2Fadventure%2Fjaws-of-the-jungle%2F&amp;tbnid=nZg0Vg5xoJQGKM&amp;vet=12ahUKEwjq_oWBrL_3AhUPNd8KHZAAAo8QMyhYegUIARDiAg..i&amp;docid=ZbY-JK7XketlrM&amp;w=424&amp;h=627&amp;q=jungle%20movie%20%20posters&amp;ved=2ahUKEwjq_oWBrL_3AhUPNd8KHZAAAo8QMyhYegUIARDiAg" xr:uid="{A33A28C5-9627-7E48-8568-2968087FE2FB}"/>
+    <hyperlink ref="S57" r:id="rId3" display="https://www.imdb.com/title/tt13320622/" xr:uid="{DA4F55DC-6D58-524B-8943-43F24260F365}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -11718,410 +11586,410 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D1" t="s">
         <v>542</v>
-      </c>
-      <c r="B1" t="s">
-        <v>543</v>
-      </c>
-      <c r="C1" t="s">
-        <v>544</v>
-      </c>
-      <c r="D1" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>285</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B4" t="s">
         <v>287</v>
       </c>
       <c r="C4" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B5" t="s">
         <v>288</v>
       </c>
       <c r="C5" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B6" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B8" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C8" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B9" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C9" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E9" s="13"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>289</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B11" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C11" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B12" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C12" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B13" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C13" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1">
       <c r="A14" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B14" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C14" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>290</v>
       </c>
       <c r="C15" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>291</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="E16" s="13"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>292</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E17" s="13"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>294</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E19" s="13"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>295</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="E20" s="13"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>296</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>297</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B23" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C23" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>298</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B25" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C25" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B26" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D26" s="13"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B27" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C27" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B28" t="s">
         <v>299</v>
       </c>
       <c r="C28" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>300</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B30" t="s">
         <v>238</v>
@@ -12130,15 +11998,15 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B31" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D32" s="13"/>
     </row>
@@ -12150,10 +12018,10 @@
         <v>239</v>
       </c>
       <c r="C33" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -12164,10 +12032,10 @@
         <v>240</v>
       </c>
       <c r="C34" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D34" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -12178,10 +12046,10 @@
         <v>246</v>
       </c>
       <c r="C35" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E35" s="14"/>
     </row>
@@ -12190,13 +12058,13 @@
         <v>256</v>
       </c>
       <c r="B36" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C36" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E36" s="14"/>
     </row>
@@ -12208,10 +12076,10 @@
         <v>241</v>
       </c>
       <c r="C37" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -12222,10 +12090,10 @@
         <v>242</v>
       </c>
       <c r="C38" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -12236,10 +12104,10 @@
         <v>243</v>
       </c>
       <c r="C39" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -12250,10 +12118,10 @@
         <v>244</v>
       </c>
       <c r="C40" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -12264,10 +12132,10 @@
         <v>245</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E41" s="14"/>
     </row>
@@ -12279,10 +12147,10 @@
         <v>250</v>
       </c>
       <c r="C42" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -12293,10 +12161,10 @@
         <v>251</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -12307,10 +12175,10 @@
         <v>252</v>
       </c>
       <c r="C44" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -12321,10 +12189,10 @@
         <v>253</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -12335,10 +12203,10 @@
         <v>248</v>
       </c>
       <c r="C46" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E46" s="14"/>
     </row>
@@ -12350,10 +12218,10 @@
         <v>249</v>
       </c>
       <c r="C47" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E47" s="14"/>
     </row>
@@ -12362,13 +12230,13 @@
         <v>256</v>
       </c>
       <c r="B48" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C48" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E48" s="14"/>
     </row>
@@ -12377,13 +12245,13 @@
         <v>256</v>
       </c>
       <c r="B49" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C49" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E49" s="14"/>
     </row>
@@ -12395,10 +12263,10 @@
         <v>254</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -12409,10 +12277,10 @@
         <v>247</v>
       </c>
       <c r="C51" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E51" s="14"/>
     </row>
@@ -12421,13 +12289,13 @@
         <v>256</v>
       </c>
       <c r="B52" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C52" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E52" s="14"/>
     </row>
@@ -12439,634 +12307,634 @@
         <v>255</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D53" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B54" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B55" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C55" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B56" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C56" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E56" s="13"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>266</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>268</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B59" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C59" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>286</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>271</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B62" s="14" t="s">
         <v>269</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B63" s="14" t="s">
         <v>272</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>267</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>276</v>
       </c>
       <c r="C65" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>277</v>
       </c>
       <c r="C66" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B67" s="14" t="s">
         <v>273</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>278</v>
       </c>
       <c r="C68" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B69" s="14" t="s">
         <v>281</v>
       </c>
       <c r="C69" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>293</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B71" s="14" t="s">
         <v>274</v>
       </c>
       <c r="C71" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>275</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B73" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C73" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B74" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C74" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B75" s="14" t="s">
         <v>282</v>
       </c>
       <c r="C75" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B76" s="14" t="s">
         <v>279</v>
       </c>
       <c r="C76" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B77" s="14" t="s">
         <v>280</v>
       </c>
       <c r="C77" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B78" s="14" t="s">
         <v>284</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B79" s="14" t="s">
         <v>270</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B80" s="14" t="s">
         <v>283</v>
       </c>
       <c r="C80" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B81" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D81" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="22" customHeight="1">
       <c r="A82" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B84" s="14" t="s">
         <v>258</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B86" s="14" t="s">
         <v>259</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B87" s="14" t="s">
         <v>260</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B88" s="14" t="s">
         <v>261</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15" customHeight="1">
       <c r="A89" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B90" s="14" t="s">
         <v>262</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B91" s="14" t="s">
         <v>263</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E92" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B95" s="14" t="s">
         <v>264</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B96" s="14" t="s">
         <v>257</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B97" s="14" t="s">
         <v>265</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="104" spans="1:4">

--- a/class_materials/projects/movies/movies.xlsx
+++ b/class_materials/projects/movies/movies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiliobruna/Dropbox (UFL)/Teaching/IDS 2935 - Future of Rain Forests/IDS2935_RainForests/class_materials/projects/movies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B33E26D-4581-2C48-8EF4-0DD74E4A544C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D310F88-76B6-F047-8E1F-45F48B24217B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="1540" windowWidth="18260" windowHeight="21100" xr2:uid="{353C7EC6-DCE5-5C40-B6C3-5F17E9D64295}"/>
+    <workbookView xWindow="10120" yWindow="3280" windowWidth="18260" windowHeight="21100" xr2:uid="{353C7EC6-DCE5-5C40-B6C3-5F17E9D64295}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="637">
   <si>
     <t>Tropic Thunder</t>
   </si>
@@ -7455,8 +7455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7E5965-5A7E-9F4C-BD42-70F9C5F2FA16}">
   <dimension ref="A1:X141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C124" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7984,9 +7984,7 @@
       <c r="X14" s="2"/>
     </row>
     <row r="15" spans="1:24">
-      <c r="A15" s="4" t="s">
-        <v>620</v>
-      </c>
+      <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>362</v>
       </c>
@@ -9768,9 +9766,7 @@
       <c r="X65" s="2"/>
     </row>
     <row r="66" spans="1:24">
-      <c r="A66" s="4" t="s">
-        <v>620</v>
-      </c>
+      <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
         <v>18</v>
       </c>

--- a/class_materials/projects/movies/movies.xlsx
+++ b/class_materials/projects/movies/movies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiliobruna/Dropbox (UFL)/Teaching/IDS 2935 - Future of Rain Forests/IDS2935_RainForests/class_materials/projects/movies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D310F88-76B6-F047-8E1F-45F48B24217B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9F9073-FBC6-C742-8B8E-5F2A0A268551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10120" yWindow="3280" windowWidth="18260" windowHeight="21100" xr2:uid="{353C7EC6-DCE5-5C40-B6C3-5F17E9D64295}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="637">
   <si>
     <t>Tropic Thunder</t>
   </si>
@@ -7455,8 +7455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7E5965-5A7E-9F4C-BD42-70F9C5F2FA16}">
   <dimension ref="A1:X141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7995,7 +7995,9 @@
         <v>1951</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>327</v>
+      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>

--- a/class_materials/projects/movies/movies.xlsx
+++ b/class_materials/projects/movies/movies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiliobruna/Dropbox (UFL)/Teaching/IDS 2935 - Future of Rain Forests/IDS2935_RainForests/class_materials/projects/movies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9F9073-FBC6-C742-8B8E-5F2A0A268551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A16415-FE26-BE44-B566-C4B73BF6F9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10120" yWindow="3280" windowWidth="18260" windowHeight="21100" xr2:uid="{353C7EC6-DCE5-5C40-B6C3-5F17E9D64295}"/>
+    <workbookView xWindow="10120" yWindow="500" windowWidth="18260" windowHeight="21100" xr2:uid="{353C7EC6-DCE5-5C40-B6C3-5F17E9D64295}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="640">
   <si>
     <t>Tropic Thunder</t>
   </si>
@@ -6742,13 +6742,22 @@
   </si>
   <si>
     <t>Ceylonese natives are forced to flee into the dangerous jungle after an attack by swarms of vicious vampire bats.</t>
+  </si>
+  <si>
+    <t>Instinct</t>
+  </si>
+  <si>
+    <t>When noted anthropologist Dr. Ethan Powell, who left society to live in the jungle is imprisoned for murder, it's up to young psychiatrist Theo Caulder to get through to him.</t>
+  </si>
+  <si>
+    <t>anthony hopkins</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6885,6 +6894,31 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -6925,7 +6959,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6947,6 +6981,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7453,10 +7491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7E5965-5A7E-9F4C-BD42-70F9C5F2FA16}">
-  <dimension ref="A1:X141"/>
+  <dimension ref="A1:X142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="Q119" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
+      <selection activeCell="V142" sqref="A142:V142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12406,6 +12444,42 @@
       <c r="U141" s="4"/>
       <c r="V141" s="9" t="s">
         <v>604</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24">
+      <c r="A142" s="19"/>
+      <c r="B142" s="20" t="s">
+        <v>637</v>
+      </c>
+      <c r="C142" s="21" t="s">
+        <v>638</v>
+      </c>
+      <c r="D142" s="20">
+        <v>1999</v>
+      </c>
+      <c r="E142" s="19"/>
+      <c r="F142" s="19"/>
+      <c r="G142" s="19"/>
+      <c r="H142" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="I142" s="19"/>
+      <c r="J142" s="19"/>
+      <c r="K142" s="19"/>
+      <c r="L142" s="19"/>
+      <c r="M142" s="19"/>
+      <c r="N142" s="19"/>
+      <c r="O142" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="P142" s="19"/>
+      <c r="Q142" s="19"/>
+      <c r="R142" s="19"/>
+      <c r="S142" s="19"/>
+      <c r="T142" s="19"/>
+      <c r="U142" s="19"/>
+      <c r="V142" s="19" t="s">
+        <v>639</v>
       </c>
     </row>
   </sheetData>
